--- a/biology/Neurosciences/Journal_of_Neuroscience_Methods/Journal_of_Neuroscience_Methods.xlsx
+++ b/biology/Neurosciences/Journal_of_Neuroscience_Methods/Journal_of_Neuroscience_Methods.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Journal of Neuroscience Methods est une revue d'évaluation par les pairs couvrant les domaines scientifiques, techniques et les protocoles utilisés dans toute branche de la recherche en neurosciences. Elle a été créée en 1979 et est publiée 18 fois par an par Elsevier. Le rédacteur en chef est Vincenzo Crunelli (Université de Cardiff).
@@ -512,10 +524,12 @@
           <t>Indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La revue est indexée par Academic OneFile[1], Academic Search[1], Biological Abstracts[1], BIOSIS Previews[2], CAB Abstracts[3], Chemical Abstracts[4], Current Contents/Life Sciences[2], Elsevier BIOBASE[1], Embase[1], FRANCIS, Global Health[5], Index Medicus/MEDLINE/PubMed[6], Inspec[1], PASCAL, Science Citation Index[2], Scopus[1] et Tropical Diseases Bulletin[7].
-Selon Journal Citation Reports, la revue avait en 2015 un facteur d'impact de 2.256, se classait 51e sur 78 revues dans la catégorie « Méthodes de recherche biochimiques »[8] et 182e sur 252 revues dans la catégorie « Neurosciences »[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La revue est indexée par Academic OneFile, Academic Search, Biological Abstracts, BIOSIS Previews, CAB Abstracts, Chemical Abstracts, Current Contents/Life Sciences, Elsevier BIOBASE, Embase, FRANCIS, Global Health, Index Medicus/MEDLINE/PubMed, Inspec, PASCAL, Science Citation Index, Scopus et Tropical Diseases Bulletin.
+Selon Journal Citation Reports, la revue avait en 2015 un facteur d'impact de 2.256, se classait 51e sur 78 revues dans la catégorie « Méthodes de recherche biochimiques » et 182e sur 252 revues dans la catégorie « Neurosciences ».
 </t>
         </is>
       </c>
